--- a/09-Excell/Unfallrisiko Schätzung.xlsx
+++ b/09-Excell/Unfallrisiko Schätzung.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrano Golliez\Desktop\ETH\6. Semester\Bachelorarbeit Word\Excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrano Golliez\Desktop\ETH\6. Semester\Bachelorarbeit\09-Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E192375-80CC-4088-BF6B-EAAA35158548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Try-Out" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Risikoschätzung '!$A$1:$O$79</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -111,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
@@ -457,7 +466,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -564,9 +573,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,6 +580,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,14 +600,17 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -603,15 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -645,7 +655,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="Textfeld 2"/>
+            <xdr:cNvPr id="3" name="Textfeld 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -800,7 +816,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="Textfeld 3"/>
+            <xdr:cNvPr id="4" name="Textfeld 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -960,7 +982,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Textfeld 4"/>
+            <xdr:cNvPr id="5" name="Textfeld 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1273,7 +1301,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="Textfeld 5"/>
+            <xdr:cNvPr id="6" name="Textfeld 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1499,7 +1533,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="Textfeld 6"/>
+            <xdr:cNvPr id="7" name="Textfeld 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1842,7 +1882,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="Textfeld 7"/>
+            <xdr:cNvPr id="8" name="Textfeld 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2068,7 +2114,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Textfeld 8"/>
+            <xdr:cNvPr id="9" name="Textfeld 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2369,7 +2421,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Textfeld 9"/>
+            <xdr:cNvPr id="10" name="Textfeld 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2670,7 +2728,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="Textfeld 10"/>
+            <xdr:cNvPr id="11" name="Textfeld 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2955,7 +3019,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Textfeld 11"/>
+            <xdr:cNvPr id="12" name="Textfeld 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3157,7 +3227,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Textfeld 12"/>
+            <xdr:cNvPr id="13" name="Textfeld 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3383,7 +3459,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Textfeld 13"/>
+            <xdr:cNvPr id="14" name="Textfeld 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3617,7 +3699,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Textfeld 1"/>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3715,7 +3803,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Textfeld 2"/>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3790,7 +3884,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4"/>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3834,7 +3934,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Textfeld 5"/>
+        <xdr:cNvPr id="6" name="Textfeld 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3909,7 +4015,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Grafik 6"/>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3950,7 +4062,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Textfeld 8"/>
+            <xdr:cNvPr id="9" name="Textfeld 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4110,7 +4228,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Textfeld 9"/>
+            <xdr:cNvPr id="10" name="Textfeld 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4447,7 +4571,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="Textfeld 10"/>
+            <xdr:cNvPr id="11" name="Textfeld 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4673,7 +4803,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Textfeld 11"/>
+            <xdr:cNvPr id="12" name="Textfeld 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5040,7 +5176,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Textfeld 12"/>
+            <xdr:cNvPr id="13" name="Textfeld 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5266,7 +5408,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Textfeld 13"/>
+            <xdr:cNvPr id="14" name="Textfeld 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5423,7 +5571,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Textfeld 14"/>
+            <xdr:cNvPr id="15" name="Textfeld 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5583,7 +5737,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Textfeld 15"/>
+            <xdr:cNvPr id="16" name="Textfeld 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5743,7 +5903,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Textfeld 16"/>
+        <xdr:cNvPr id="17" name="Textfeld 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5846,7 +6012,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Textfeld 18"/>
+            <xdr:cNvPr id="19" name="Textfeld 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6201,7 +6373,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Textfeld 19"/>
+            <xdr:cNvPr id="20" name="Textfeld 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6526,7 +6704,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="Textfeld 20"/>
+            <xdr:cNvPr id="21" name="Textfeld 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6752,7 +6936,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="Textfeld 21"/>
+            <xdr:cNvPr id="22" name="Textfeld 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6953,6 +7143,1895 @@
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/𝑃𝑘𝑚</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="507832" cy="176972"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="Textfeld 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8C0559-CE99-4051-AA5D-D0EDA00CA230}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10881360" y="3482340"/>
+              <a:ext cx="507832" cy="176972"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="de-CH" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝛾</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑉𝑒𝑙𝑜</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>,</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑐</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t> = </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="Textfeld 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8C0559-CE99-4051-AA5D-D0EDA00CA230}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10881360" y="3482340"/>
+              <a:ext cx="507832" cy="176972"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛾_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉𝑒𝑙𝑜,𝑐)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t> = </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="838200" cy="370101"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="Textfeld 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5D6FB7-9585-4EEE-AB82-850B7DE3FC43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10713720" y="3665220"/>
+              <a:ext cx="838200" cy="370101"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝛾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑉𝑒𝑙𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑏</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="de-CH" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> = </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-CH">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="Textfeld 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5D6FB7-9585-4EEE-AB82-850B7DE3FC43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10713720" y="3665220"/>
+              <a:ext cx="838200" cy="370101"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉𝑒𝑙𝑜,𝑏)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-CH">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="541943" cy="370101"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="Textfeld 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB58BBC6-0E0C-46AA-91AB-3E60DE38E739}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10866120" y="3840480"/>
+              <a:ext cx="541943" cy="370101"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝛾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑉𝑒𝑙𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="de-CH" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="de-CH" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="de-CH" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-CH">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="Textfeld 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB58BBC6-0E0C-46AA-91AB-3E60DE38E739}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10866120" y="3840480"/>
+              <a:ext cx="541943" cy="370101"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉𝑒𝑙𝑜,𝑎)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-CH">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="486672" cy="176972"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="Textfeld 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2A0E1A-07C2-4DBB-BFF3-A33055C48B90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10866120" y="4244340"/>
+              <a:ext cx="486672" cy="176972"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="de-CH" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝛾</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑀𝐼𝑉</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>,</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑐</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t> = </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="Textfeld 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2A0E1A-07C2-4DBB-BFF3-A33055C48B90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10866120" y="4244340"/>
+              <a:ext cx="486672" cy="176972"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛾_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀𝐼𝑉,𝑐)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t> = </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="838200" cy="370101"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="Textfeld 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA288A0-FC45-4A38-9281-08AC97330131}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10690860" y="4419600"/>
+              <a:ext cx="838200" cy="370101"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝛾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝐼𝑉</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑏</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="de-CH" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> = </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-CH">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="Textfeld 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA288A0-FC45-4A38-9281-08AC97330131}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10690860" y="4419600"/>
+              <a:ext cx="838200" cy="370101"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑀𝐼𝑉,𝑏)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-CH">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="534762" cy="370101"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="Textfeld 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC838FFF-C786-48D4-83BC-10FB6DD332CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10850880" y="4610100"/>
+              <a:ext cx="534762" cy="370101"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝛾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝐼𝑉</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="de-CH" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="de-CH" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="de-CH" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-CH">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="Textfeld 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC838FFF-C786-48D4-83BC-10FB6DD332CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10850880" y="4610100"/>
+              <a:ext cx="534762" cy="370101"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑀𝐼𝑉,𝑎)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-CH">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="529760" cy="321819"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="Textfeld 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12489180" y="3131820"/>
+              <a:ext cx="529760" cy="321819"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-CH" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑈𝑛𝑓𝑎𝑙𝑙</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑃𝑘𝑚</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="Textfeld 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12489180" y="3131820"/>
+              <a:ext cx="529760" cy="321819"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑈𝑛𝑓𝑎𝑙𝑙〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7231,7 +9310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -7559,11 +9638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7658,7 +9737,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="48"/>
-      <c r="H13" s="54"/>
+      <c r="H13" s="66"/>
       <c r="J13" s="47" t="s">
         <v>19</v>
       </c>
@@ -7674,7 +9753,7 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F14" s="47"/>
       <c r="G14" s="48"/>
-      <c r="H14" s="54"/>
+      <c r="H14" s="66"/>
       <c r="J14" s="47"/>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
@@ -7684,7 +9763,7 @@
       <c r="F15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="54"/>
+      <c r="G15" s="66"/>
       <c r="H15" s="1">
         <f>1/828000000</f>
         <v>1.2077294685990338E-9</v>
@@ -7704,25 +9783,25 @@
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F16" s="47"/>
       <c r="G16" s="48"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="66"/>
       <c r="J16" s="43"/>
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
       <c r="M16" s="28"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="54"/>
+      <c r="G17" s="66"/>
       <c r="H17" s="1">
         <f>1/73000000</f>
         <v>1.3698630136986301E-8</v>
       </c>
-      <c r="J17" s="67" t="s">
+      <c r="J17" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="68"/>
+      <c r="K17" s="64"/>
       <c r="L17" s="1">
         <v>49895</v>
       </c>
@@ -7731,19 +9810,19 @@
         <v>0.93212897922582572</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F19" s="64" t="s">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F19" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="1">
         <f>1/33000000</f>
         <v>3.0303030303030305E-8</v>
@@ -7758,59 +9837,75 @@
       </c>
       <c r="M19" s="33"/>
     </row>
-    <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="2"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="31"/>
+      <c r="P20" s="70">
+        <f>F22</f>
+        <v>1.3698630136986301E-8</v>
+      </c>
     </row>
-    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J21" s="55">
+    <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="54">
         <f>(F22/M13)*M15</f>
         <v>2.6432999158184737E-7</v>
       </c>
-      <c r="K21" s="56"/>
-      <c r="L21" s="57"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="56"/>
+      <c r="P21" s="70">
+        <f>J21</f>
+        <v>2.6432999158184737E-7</v>
+      </c>
     </row>
-    <row r="22" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F22" s="55">
+    <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="54">
         <f>H17</f>
         <v>1.3698630136986301E-8</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="63"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="59"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
+      <c r="P22" s="70">
+        <f>J23</f>
+        <v>3.8183974898599521E-6</v>
+      </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="J23" s="55">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="J23" s="54">
         <f>(F22/M13)*M17</f>
         <v>3.8183974898599521E-6</v>
       </c>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="56"/>
       <c r="M23" s="16"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
+    <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
       <c r="M24" s="16"/>
       <c r="N24" s="2"/>
+      <c r="P24" s="70">
+        <f>F26</f>
+        <v>5.2428785204316568E-9</v>
+      </c>
     </row>
-    <row r="25" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F25" s="37"/>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
@@ -7820,59 +9915,67 @@
       <c r="L25" s="36"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
+      <c r="P25" s="70">
+        <f>J26</f>
+        <v>1.0116705256743542E-7</v>
+      </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F26" s="55">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F26" s="54">
         <f>H15*H32+H19*H34</f>
         <v>5.2428785204316568E-9</v>
       </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="57"/>
-      <c r="J26" s="55">
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+      <c r="J26" s="54">
         <f>(F26/M13)*M15</f>
         <v>1.0116705256743542E-7</v>
       </c>
-      <c r="K26" s="56"/>
-      <c r="L26" s="57"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
+      <c r="P26" s="70">
+        <f>J28</f>
+        <v>1.4614157752901537E-6</v>
+      </c>
     </row>
-    <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="63"/>
+    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
       <c r="M27" s="16"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-      <c r="J28" s="55">
+    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+      <c r="J28" s="54">
         <f>(F26/M13)*M17</f>
         <v>1.4614157752901537E-6</v>
       </c>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="63"/>
+    <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J29" s="57"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="L30" s="2"/>
       <c r="M30" s="16"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H31" s="22" t="s">
         <v>17</v>
       </c>
@@ -7880,7 +9983,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
@@ -7953,6 +10056,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E6"/>
+    <mergeCell ref="B8:E11"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B32:E35"/>
+    <mergeCell ref="F26:H28"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:H18"/>
     <mergeCell ref="J28:L29"/>
     <mergeCell ref="F22:H24"/>
     <mergeCell ref="J19:K19"/>
@@ -7966,17 +10080,6 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B2:E6"/>
-    <mergeCell ref="B8:E11"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B32:E35"/>
-    <mergeCell ref="F26:H28"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>

--- a/09-Excell/Unfallrisiko Schätzung.xlsx
+++ b/09-Excell/Unfallrisiko Schätzung.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrano Golliez\Desktop\ETH\6. Semester\Bachelorarbeit\09-Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E192375-80CC-4088-BF6B-EAAA35158548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Try-Out" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Risikoschätzung '!$A$1:$O$79</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Autos + LKW +…</t>
   </si>
@@ -116,11 +115,45 @@
   <si>
     <t>Sachschaden und Leichtverletzten [a]</t>
   </si>
+  <si>
+    <t>Variante 1</t>
+  </si>
+  <si>
+    <t>Variante 2</t>
+  </si>
+  <si>
+    <t>Variante 3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reduktion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Unfallrisiko (MIV):</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
@@ -128,7 +161,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.0000000_ ;_ * \-#,##0.0000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +193,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -181,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -460,13 +500,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -531,6 +638,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,6 +687,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,6 +724,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,14 +744,14 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,19 +762,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -658,7 +822,7 @@
             <xdr:cNvPr id="3" name="Textfeld 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -819,7 +983,7 @@
             <xdr:cNvPr id="4" name="Textfeld 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -985,7 +1149,7 @@
             <xdr:cNvPr id="5" name="Textfeld 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1304,7 +1468,7 @@
             <xdr:cNvPr id="6" name="Textfeld 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1700,7 @@
             <xdr:cNvPr id="7" name="Textfeld 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1885,7 +2049,7 @@
             <xdr:cNvPr id="8" name="Textfeld 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2117,7 +2281,7 @@
             <xdr:cNvPr id="9" name="Textfeld 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2424,7 +2588,7 @@
             <xdr:cNvPr id="10" name="Textfeld 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2731,7 +2895,7 @@
             <xdr:cNvPr id="11" name="Textfeld 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3022,7 +3186,7 @@
             <xdr:cNvPr id="12" name="Textfeld 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3230,7 +3394,7 @@
             <xdr:cNvPr id="13" name="Textfeld 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3462,7 +3626,7 @@
             <xdr:cNvPr id="14" name="Textfeld 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3702,7 +3866,7 @@
         <xdr:cNvPr id="2" name="Textfeld 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +3970,7 @@
         <xdr:cNvPr id="3" name="Textfeld 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3879,15 +4043,15 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>15643</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Grafik 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3937,7 +4101,7 @@
         <xdr:cNvPr id="6" name="Textfeld 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4018,7 +4182,7 @@
         <xdr:cNvPr id="7" name="Grafik 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4065,7 +4229,7 @@
             <xdr:cNvPr id="9" name="Textfeld 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4231,7 +4395,7 @@
             <xdr:cNvPr id="10" name="Textfeld 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4574,7 +4738,7 @@
             <xdr:cNvPr id="11" name="Textfeld 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4806,7 +4970,7 @@
             <xdr:cNvPr id="12" name="Textfeld 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5179,7 +5343,7 @@
             <xdr:cNvPr id="13" name="Textfeld 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5411,7 +5575,7 @@
             <xdr:cNvPr id="14" name="Textfeld 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5574,7 +5738,7 @@
             <xdr:cNvPr id="15" name="Textfeld 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5740,7 +5904,7 @@
             <xdr:cNvPr id="16" name="Textfeld 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5906,7 +6070,7 @@
         <xdr:cNvPr id="17" name="Textfeld 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6015,7 +6179,7 @@
             <xdr:cNvPr id="19" name="Textfeld 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6376,7 +6540,7 @@
             <xdr:cNvPr id="20" name="Textfeld 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6707,7 +6871,7 @@
             <xdr:cNvPr id="21" name="Textfeld 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6939,7 +7103,7 @@
             <xdr:cNvPr id="22" name="Textfeld 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7164,14 +7328,14 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="507832" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="Textfeld 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8C0559-CE99-4051-AA5D-D0EDA00CA230}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD8C0559-CE99-4051-AA5D-D0EDA00CA230}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7258,7 +7422,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="Textfeld 22">
@@ -7333,14 +7497,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="838200" cy="370101"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="Textfeld 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5D6FB7-9585-4EEE-AB82-850B7DE3FC43}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F5D6FB7-9585-4EEE-AB82-850B7DE3FC43}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7494,7 +7658,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="Textfeld 23">
@@ -7646,14 +7810,14 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="541943" cy="370101"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="Textfeld 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB58BBC6-0E0C-46AA-91AB-3E60DE38E739}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB58BBC6-0E0C-46AA-91AB-3E60DE38E739}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7837,7 +8001,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="Textfeld 24">
@@ -7989,14 +8153,14 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="486672" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="Textfeld 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2A0E1A-07C2-4DBB-BFF3-A33055C48B90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A2A0E1A-07C2-4DBB-BFF3-A33055C48B90}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8083,7 +8247,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="Textfeld 25">
@@ -8158,14 +8322,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="838200" cy="370101"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="Textfeld 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA288A0-FC45-4A38-9281-08AC97330131}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DA288A0-FC45-4A38-9281-08AC97330131}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8319,7 +8483,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="Textfeld 26">
@@ -8471,14 +8635,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="534762" cy="370101"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="Textfeld 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC838FFF-C786-48D4-83BC-10FB6DD332CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC838FFF-C786-48D4-83BC-10FB6DD332CE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8662,7 +8826,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="Textfeld 27">
@@ -8814,14 +8978,14 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="529760" cy="321819"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="Textfeld 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8946,13 +9110,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="Textfeld 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9043,6 +9207,101 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="502920"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Textfeld 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13289280" y="2590800"/>
+          <a:ext cx="2324100" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zustand 2 (Sensitivitätsanalyse)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Erhöhung</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t> Unfallrisiko (Velo) um:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -9310,10 +9569,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -9326,15 +9585,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="12"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="53"/>
+      <c r="I3" s="56"/>
       <c r="K3" s="13" t="s">
         <v>3</v>
       </c>
@@ -9437,10 +9696,10 @@
         <v>5.2428785204316568E-9</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="53"/>
+      <c r="I14" s="56"/>
       <c r="K14" s="13" t="s">
         <v>3</v>
       </c>
@@ -9454,10 +9713,10 @@
       <c r="A16" s="5"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="46"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="4">
         <v>179</v>
       </c>
@@ -9477,19 +9736,19 @@
         <v>1.0116705256743542E-7</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="49"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="52"/>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="2"/>
       <c r="C18" s="6"/>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="6">
         <v>3454</v>
       </c>
@@ -9502,9 +9761,9 @@
       <c r="A19" s="5"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="49"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="52"/>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -9514,10 +9773,10 @@
         <v>1.4614157752901537E-6</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="6">
         <v>49895</v>
       </c>
@@ -9530,19 +9789,19 @@
       <c r="A21" s="5"/>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="19"/>
       <c r="C22" s="8"/>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="48"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="14">
         <f>I20+I18+I16</f>
         <v>53528</v>
@@ -9586,8 +9845,8 @@
         <v>2.6432999158184737E-7</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
@@ -9638,11 +9897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:P37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9656,92 +9915,93 @@
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="13.5546875" customWidth="1"/>
     <col min="14" max="14" width="2.5546875" customWidth="1"/>
+    <col min="18" max="18" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F13" s="47" t="s">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="66"/>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="51"/>
       <c r="L13" s="1">
         <v>179</v>
       </c>
@@ -9750,17 +10010,17 @@
         <v>3.3440442385293677E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+    <row r="14" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="66"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
       <c r="M14" s="28"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F15" s="47" t="s">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F15" s="50" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="66"/>
@@ -9768,10 +10028,10 @@
         <f>1/828000000</f>
         <v>1.2077294685990338E-9</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="51"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="1">
         <v>3454</v>
       </c>
@@ -9779,18 +10039,24 @@
         <f>L15/L19</f>
         <v>6.4526976535644889E-2</v>
       </c>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="59"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="66"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="28"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="62"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F17" s="47" t="s">
+    <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="50" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="66"/>
@@ -9798,10 +10064,10 @@
         <f>1/73000000</f>
         <v>1.3698630136986301E-8</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="64"/>
+      <c r="K17" s="80"/>
       <c r="L17" s="1">
         <v>49895</v>
       </c>
@@ -9809,103 +10075,181 @@
         <f>L17/L19</f>
         <v>0.93212897922582572</v>
       </c>
+      <c r="S17" s="63"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="65"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
+    <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+      <c r="Q18" s="82"/>
+      <c r="S18" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="88" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F19" s="67" t="s">
+    <row r="19" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="1">
         <f>1/33000000</f>
         <v>3.0303030303030305E-8</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="46"/>
+      <c r="K19" s="49"/>
       <c r="L19" s="9">
         <f>L17+L15+L13</f>
         <v>53528</v>
       </c>
       <c r="M19" s="33"/>
+      <c r="Q19" s="83"/>
+      <c r="S19" s="87">
+        <v>0</v>
+      </c>
+      <c r="T19" s="89">
+        <v>0.2</v>
+      </c>
+      <c r="U19" s="87">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="2"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="31"/>
-      <c r="P20" s="70">
+      <c r="P20" s="40">
         <f>F22</f>
         <v>1.3698630136986301E-8</v>
       </c>
+      <c r="Q20" s="40"/>
+      <c r="S20" s="42">
+        <f>P20</f>
+        <v>1.3698630136986301E-8</v>
+      </c>
+      <c r="T20" s="42">
+        <f>P20+(0.2*P20)</f>
+        <v>1.6438356164383561E-8</v>
+      </c>
+      <c r="U20" s="42">
+        <f>P20+(0.1*P20)</f>
+        <v>1.5068493150684933E-8</v>
+      </c>
     </row>
-    <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J21" s="54">
+    <row r="21" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="67">
         <f>(F22/M13)*M15</f>
         <v>2.6432999158184737E-7</v>
       </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="56"/>
-      <c r="P21" s="70">
+      <c r="K21" s="68"/>
+      <c r="L21" s="69"/>
+      <c r="P21" s="40">
         <f>J21</f>
         <v>2.6432999158184737E-7</v>
       </c>
+      <c r="Q21" s="40"/>
+      <c r="S21" s="42">
+        <f>P21</f>
+        <v>2.6432999158184737E-7</v>
+      </c>
+      <c r="T21" s="42">
+        <f t="shared" ref="T21:T22" si="0">P21+(0.2*P21)</f>
+        <v>3.1719598989821684E-7</v>
+      </c>
+      <c r="U21" s="42">
+        <f t="shared" ref="U21:U22" si="1">P21+(0.1*P21)</f>
+        <v>2.9076299074003213E-7</v>
+      </c>
     </row>
-    <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F22" s="54">
+    <row r="22" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="67">
         <f>H17</f>
         <v>1.3698630136986301E-8</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="75"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="P22" s="70">
+      <c r="P22" s="40">
         <f>J23</f>
         <v>3.8183974898599521E-6</v>
       </c>
+      <c r="Q22" s="40"/>
+      <c r="S22" s="42">
+        <f>P22</f>
+        <v>3.8183974898599521E-6</v>
+      </c>
+      <c r="T22" s="42">
+        <f t="shared" si="0"/>
+        <v>4.5820769878319424E-6</v>
+      </c>
+      <c r="U22" s="42">
+        <f t="shared" si="1"/>
+        <v>4.2002372388459477E-6</v>
+      </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="J23" s="54">
+    <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
+      <c r="J23" s="67">
         <f>(F22/M13)*M17</f>
         <v>3.8183974898599521E-6</v>
       </c>
-      <c r="K23" s="55"/>
-      <c r="L23" s="56"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="69"/>
       <c r="M23" s="16"/>
       <c r="N23" s="2"/>
+      <c r="S23" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="85"/>
+      <c r="U23" s="86"/>
     </row>
-    <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
+    <row r="24" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="75"/>
       <c r="M24" s="16"/>
       <c r="N24" s="2"/>
-      <c r="P24" s="70">
+      <c r="P24" s="40">
         <f>F26</f>
         <v>5.2428785204316568E-9</v>
       </c>
+      <c r="Q24" s="40"/>
+      <c r="S24" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="42">
+        <f>P24-(0.1*P24)</f>
+        <v>4.7185906683884915E-9</v>
+      </c>
     </row>
-    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F25" s="37"/>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
@@ -9915,67 +10259,98 @@
       <c r="L25" s="36"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="P25" s="70">
+      <c r="P25" s="40">
         <f>J26</f>
         <v>1.0116705256743542E-7</v>
       </c>
+      <c r="Q25" s="40"/>
+      <c r="S25" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="42">
+        <f>P25-(0.1*P25)</f>
+        <v>9.105034731069187E-8</v>
+      </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F26" s="54">
+    <row r="26" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="67">
         <f>H15*H32+H19*H34</f>
         <v>5.2428785204316568E-9</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
-      <c r="J26" s="54">
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
+      <c r="J26" s="67">
         <f>(F26/M13)*M15</f>
         <v>1.0116705256743542E-7</v>
       </c>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="P26" s="70">
+      <c r="P26" s="40">
         <f>J28</f>
         <v>1.4614157752901537E-6</v>
       </c>
+      <c r="Q26" s="40"/>
+      <c r="S26" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="U26" s="42">
+        <f>P26-(0.1*P26)</f>
+        <v>1.3152741977611383E-6</v>
+      </c>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
+    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="70"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="72"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="75"/>
       <c r="M27" s="16"/>
       <c r="N27" s="2"/>
+      <c r="S27" s="87">
+        <v>0</v>
+      </c>
+      <c r="T27" s="87">
+        <v>0</v>
+      </c>
+      <c r="U27" s="87">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
-      <c r="J28" s="54">
+    <row r="28" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+      <c r="J28" s="67">
         <f>(F26/M13)*M17</f>
         <v>1.4614157752901537E-6</v>
       </c>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="69"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J29" s="57"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
+    <row r="29" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="75"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="L30" s="2"/>
       <c r="M30" s="16"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="H31" s="22" t="s">
         <v>17</v>
       </c>
@@ -9983,11 +10358,11 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="3" t="s">
         <v>15</v>
       </c>
@@ -10003,19 +10378,19 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="5"/>
       <c r="G33" s="2"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="5" t="s">
         <v>1</v>
       </c>
@@ -10028,10 +10403,10 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="5"/>
       <c r="G35" s="2"/>
       <c r="H35" s="8"/>
@@ -10055,7 +10430,19 @@
       <c r="J37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="J28:L29"/>
+    <mergeCell ref="F22:H24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="S15:U17"/>
     <mergeCell ref="B2:E6"/>
     <mergeCell ref="B8:E11"/>
     <mergeCell ref="F16:H16"/>
@@ -10067,19 +10454,10 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J28:L29"/>
-    <mergeCell ref="F22:H24"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="J6:L11"/>
     <mergeCell ref="J23:L24"/>
     <mergeCell ref="J21:L22"/>
     <mergeCell ref="J26:L27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>

--- a/09-Excell/Unfallrisiko Schätzung.xlsx
+++ b/09-Excell/Unfallrisiko Schätzung.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Risikoschätzung " sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Risikoschätzung '!$A$1:$O$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Risikoschätzung '!$A$1:$V$53</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -645,6 +645,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,15 +768,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,14 +777,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3944,7 +3944,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="de-CH" sz="1100" b="0" i="0" baseline="0"/>
-            <a:t>Berechnung anhand angegebener  Quellen in Kapitel 6.3.2</a:t>
+            <a:t>Berechnung anhand angegebener  Quellen in Kapitel 4.2.3</a:t>
           </a:r>
           <a:endParaRPr lang="de-CH" sz="1100" b="0" i="0"/>
         </a:p>
@@ -4166,16 +4166,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>210820</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147320</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>345912</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>165540</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>51135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4204,8 +4204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="210820" y="6883400"/>
-          <a:ext cx="5430992" cy="4940740"/>
+          <a:off x="6852920" y="5537201"/>
+          <a:ext cx="4132580" cy="3759534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9585,15 +9585,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="12"/>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="56"/>
+      <c r="I3" s="59"/>
       <c r="K3" s="13" t="s">
         <v>3</v>
       </c>
@@ -9696,10 +9696,10 @@
         <v>5.2428785204316568E-9</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="56"/>
+      <c r="I14" s="59"/>
       <c r="K14" s="13" t="s">
         <v>3</v>
       </c>
@@ -9713,10 +9713,10 @@
       <c r="A16" s="5"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="49"/>
+      <c r="H16" s="52"/>
       <c r="I16" s="4">
         <v>179</v>
       </c>
@@ -9736,19 +9736,19 @@
         <v>1.0116705256743542E-7</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="52"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55"/>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="2"/>
       <c r="C18" s="6"/>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="47"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="6">
         <v>3454</v>
       </c>
@@ -9761,9 +9761,9 @@
       <c r="A19" s="5"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="52"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="55"/>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -9773,10 +9773,10 @@
         <v>1.4614157752901537E-6</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="47"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="6">
         <v>49895</v>
       </c>
@@ -9789,19 +9789,19 @@
       <c r="A21" s="5"/>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="19"/>
       <c r="C22" s="8"/>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="51"/>
+      <c r="H22" s="54"/>
       <c r="I22" s="14">
         <f>I20+I18+I16</f>
         <v>53528</v>
@@ -9845,8 +9845,8 @@
         <v>2.6432999158184737E-7</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
@@ -9900,16 +9900,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="E12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="12.5546875" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
@@ -9919,89 +9920,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="66"/>
-      <c r="J13" s="50" t="s">
+      <c r="G13" s="54"/>
+      <c r="H13" s="69"/>
+      <c r="J13" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="51"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="1">
         <v>179</v>
       </c>
@@ -10011,27 +10012,27 @@
       </c>
     </row>
     <row r="14" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="66"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="69"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="28"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="66"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="1">
         <f>1/828000000</f>
         <v>1.2077294685990338E-9</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="54"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="1">
         <v>3454</v>
       </c>
@@ -10039,35 +10040,35 @@
         <f>L15/L19</f>
         <v>6.4526976535644889E-2</v>
       </c>
-      <c r="S15" s="57"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="59"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="62"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="66"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="69"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="28"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="62"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="65"/>
     </row>
     <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="66"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="1">
         <f>1/73000000</f>
         <v>1.3698630136986301E-8</v>
       </c>
-      <c r="J17" s="79" t="s">
+      <c r="J17" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="80"/>
+      <c r="K17" s="83"/>
       <c r="L17" s="1">
         <v>49895</v>
       </c>
@@ -10075,54 +10076,54 @@
         <f>L17/L19</f>
         <v>0.93212897922582572</v>
       </c>
-      <c r="S17" s="63"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="65"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="68"/>
     </row>
     <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="81"/>
-      <c r="Q18" s="82"/>
-      <c r="S18" s="88" t="s">
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="87"/>
+      <c r="Q18" s="88"/>
+      <c r="S18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="88" t="s">
+      <c r="T18" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="U18" s="88" t="s">
+      <c r="U18" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="77"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="1">
         <f>1/33000000</f>
         <v>3.0303030303030305E-8</v>
       </c>
-      <c r="J19" s="48" t="s">
+      <c r="J19" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="49"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="9">
         <f>L17+L15+L13</f>
         <v>53528</v>
       </c>
       <c r="M19" s="33"/>
-      <c r="Q19" s="83"/>
-      <c r="S19" s="87">
+      <c r="Q19" s="89"/>
+      <c r="S19" s="43">
         <v>0</v>
       </c>
-      <c r="T19" s="89">
+      <c r="T19" s="45">
         <v>0.2</v>
       </c>
-      <c r="U19" s="87">
+      <c r="U19" s="43">
         <v>0.1</v>
       </c>
     </row>
@@ -10152,12 +10153,12 @@
       </c>
     </row>
     <row r="21" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J21" s="67">
+      <c r="J21" s="70">
         <f>(F22/M13)*M15</f>
         <v>2.6432999158184737E-7</v>
       </c>
-      <c r="K21" s="68"/>
-      <c r="L21" s="69"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="72"/>
       <c r="P21" s="40">
         <f>J21</f>
         <v>2.6432999158184737E-7</v>
@@ -10177,15 +10178,15 @@
       </c>
     </row>
     <row r="22" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F22" s="67">
+      <c r="F22" s="70">
         <f>H17</f>
         <v>1.3698630136986301E-8</v>
       </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="69"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="75"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="72"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="78"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="P22" s="40">
@@ -10207,15 +10208,15 @@
       </c>
     </row>
     <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
-      <c r="J23" s="67">
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+      <c r="J23" s="70">
         <f>(F22/M13)*M17</f>
         <v>3.8183974898599521E-6</v>
       </c>
-      <c r="K23" s="68"/>
-      <c r="L23" s="69"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
       <c r="M23" s="16"/>
       <c r="N23" s="2"/>
       <c r="S23" s="84" t="s">
@@ -10225,12 +10226,12 @@
       <c r="U23" s="86"/>
     </row>
     <row r="24" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="78"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="78"/>
       <c r="M24" s="16"/>
       <c r="N24" s="2"/>
       <c r="P24" s="40">
@@ -10276,18 +10277,18 @@
       </c>
     </row>
     <row r="26" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="67">
+      <c r="F26" s="70">
         <f>H15*H32+H19*H34</f>
         <v>5.2428785204316568E-9</v>
       </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
-      <c r="J26" s="67">
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
+      <c r="J26" s="70">
         <f>(F26/M13)*M15</f>
         <v>1.0116705256743542E-7</v>
       </c>
-      <c r="K26" s="68"/>
-      <c r="L26" s="69"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="72"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="P26" s="40">
@@ -10307,41 +10308,41 @@
       </c>
     </row>
     <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F27" s="70"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="72"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="75"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
       <c r="M27" s="16"/>
       <c r="N27" s="2"/>
-      <c r="S27" s="87">
+      <c r="S27" s="43">
         <v>0</v>
       </c>
-      <c r="T27" s="87">
+      <c r="T27" s="43">
         <v>0</v>
       </c>
-      <c r="U27" s="87">
+      <c r="U27" s="43">
         <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
-      <c r="J28" s="67">
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
+      <c r="J28" s="70">
         <f>(F26/M13)*M17</f>
         <v>1.4614157752901537E-6</v>
       </c>
-      <c r="K28" s="68"/>
-      <c r="L28" s="69"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="72"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="75"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="78"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
@@ -10359,10 +10360,10 @@
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="3" t="s">
         <v>15</v>
       </c>
@@ -10378,19 +10379,19 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="5"/>
       <c r="G33" s="2"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="5" t="s">
         <v>1</v>
       </c>
@@ -10403,10 +10404,10 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="5"/>
       <c r="G35" s="2"/>
       <c r="H35" s="8"/>
@@ -10460,13 +10461,13 @@
     <mergeCell ref="J26:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CUnfallrisiko Schätzung</oddHeader>
+  </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="14" man="1"/>
+    <brk id="63" max="13" man="1"/>
   </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="78" man="1"/>
-  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/09-Excell/Unfallrisiko Schätzung.xlsx
+++ b/09-Excell/Unfallrisiko Schätzung.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Risikoschätzung '!$A$1:$V$53</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9900,8 +9900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="E12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9951,6 +9951,10 @@
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
       <c r="L6" s="46"/>
+      <c r="P6">
+        <f>0.003/0.065</f>
+        <v>4.6153846153846156E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="J7" s="46"/>
@@ -10121,10 +10125,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="45">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="U19" s="43">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10144,12 +10148,12 @@
         <v>1.3698630136986301E-8</v>
       </c>
       <c r="T20" s="42">
-        <f>P20+(0.2*P20)</f>
-        <v>1.6438356164383561E-8</v>
+        <f>P20+(0.5*P20)</f>
+        <v>2.0547945205479452E-8</v>
       </c>
       <c r="U20" s="42">
-        <f>P20+(0.1*P20)</f>
-        <v>1.5068493150684933E-8</v>
+        <f>P20+(0*P20)</f>
+        <v>1.3698630136986301E-8</v>
       </c>
     </row>
     <row r="21" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10169,12 +10173,12 @@
         <v>2.6432999158184737E-7</v>
       </c>
       <c r="T21" s="42">
-        <f t="shared" ref="T21:T22" si="0">P21+(0.2*P21)</f>
-        <v>3.1719598989821684E-7</v>
+        <f>P21+(0.5*P21)</f>
+        <v>3.9649498737277106E-7</v>
       </c>
       <c r="U21" s="42">
-        <f t="shared" ref="U21:U22" si="1">P21+(0.1*P21)</f>
-        <v>2.9076299074003213E-7</v>
+        <f>P21+(0*P21)</f>
+        <v>2.6432999158184737E-7</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10199,12 +10203,12 @@
         <v>3.8183974898599521E-6</v>
       </c>
       <c r="T22" s="42">
-        <f t="shared" si="0"/>
-        <v>4.5820769878319424E-6</v>
+        <f>P22+(0.5*P22)</f>
+        <v>5.7275962347899282E-6</v>
       </c>
       <c r="U22" s="42">
-        <f t="shared" si="1"/>
-        <v>4.2002372388459477E-6</v>
+        <f>P22+(0*P22)</f>
+        <v>3.8183974898599521E-6</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10246,8 +10250,8 @@
         <v>25</v>
       </c>
       <c r="U24" s="42">
-        <f>P24-(0.1*P24)</f>
-        <v>4.7185906683884915E-9</v>
+        <f>P24-(0.5*P24)</f>
+        <v>2.6214392602158284E-9</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10272,8 +10276,8 @@
         <v>25</v>
       </c>
       <c r="U25" s="42">
-        <f>P25-(0.1*P25)</f>
-        <v>9.105034731069187E-8</v>
+        <f>P25-(0.5*P25)</f>
+        <v>5.0583526283717708E-8</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10303,8 +10307,8 @@
         <v>25</v>
       </c>
       <c r="U26" s="42">
-        <f>P26-(0.1*P26)</f>
-        <v>1.3152741977611383E-6</v>
+        <f>P26-(0.5*P26)</f>
+        <v>7.3070788764507686E-7</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10323,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="43">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/09-Excell/Unfallrisiko Schätzung.xlsx
+++ b/09-Excell/Unfallrisiko Schätzung.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Autos + LKW +…</t>
   </si>
@@ -95,27 +95,6 @@
     <t>Velo</t>
   </si>
   <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anteil[%]</t>
-  </si>
-  <si>
-    <t>Unfälle mit Todefolge [c] pro Personenkilometer</t>
-  </si>
-  <si>
-    <t>Unfälle mit Getöteten [c]</t>
-  </si>
-  <si>
-    <t>Unfälle mit Schwerverletzte [b]</t>
-  </si>
-  <si>
-    <t>Sachschaden und Leichtverletzten [a]</t>
-  </si>
-  <si>
     <t>Variante 1</t>
   </si>
   <si>
@@ -149,17 +128,27 @@
       <t xml:space="preserve"> Unfallrisiko (MIV):</t>
     </r>
   </si>
+  <si>
+    <t>Verkehrsleitung</t>
+  </si>
+  <si>
+    <t>Tote</t>
+  </si>
+  <si>
+    <t>Leichtverletzte</t>
+  </si>
+  <si>
+    <t>MIV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
-    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.0000000_ ;_ * \-#,##0.0000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.0000000_ ;_ * \-#,##0.0000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -186,62 +175,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="29">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,17 +441,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -568,15 +517,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -585,53 +533,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,56 +559,65 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,10 +628,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -720,76 +643,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -822,7 +693,7 @@
             <xdr:cNvPr id="3" name="Textfeld 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -983,7 +854,7 @@
             <xdr:cNvPr id="4" name="Textfeld 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1149,7 +1020,7 @@
             <xdr:cNvPr id="5" name="Textfeld 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1339,7 @@
             <xdr:cNvPr id="6" name="Textfeld 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1700,7 +1571,7 @@
             <xdr:cNvPr id="7" name="Textfeld 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2049,7 +1920,7 @@
             <xdr:cNvPr id="8" name="Textfeld 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2281,7 +2152,7 @@
             <xdr:cNvPr id="9" name="Textfeld 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2588,7 +2459,7 @@
             <xdr:cNvPr id="10" name="Textfeld 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2895,7 +2766,7 @@
             <xdr:cNvPr id="11" name="Textfeld 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3186,7 +3057,7 @@
             <xdr:cNvPr id="12" name="Textfeld 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3394,7 +3265,7 @@
             <xdr:cNvPr id="13" name="Textfeld 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3626,7 +3497,7 @@
             <xdr:cNvPr id="14" name="Textfeld 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3856,17 +3727,17 @@
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>975360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Textfeld 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3874,8 +3745,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="236220"/>
-          <a:ext cx="3055620" cy="807720"/>
+          <a:off x="1059180" y="236220"/>
+          <a:ext cx="2880360" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3952,284 +3823,22 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Textfeld 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="1303020"/>
-          <a:ext cx="3086100" cy="670560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100"/>
-            <a:t>Todesfall</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
-            <a:t> pro Personekilometer gemäss</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" i="1" baseline="0"/>
-            <a:t>Risikovergleich ausgewählter Landesverkehrsmittel 2008-2017, BFS, 2019</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-CH" sz="1100" i="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>160423</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="213360" y="2194560"/>
-          <a:ext cx="3147060" cy="2804563"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Textfeld 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="5349240"/>
-          <a:ext cx="3124200" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100"/>
-            <a:t>Strassenmotorfahrzeuge in der Schweiz</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
-            <a:t> gemäss</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" i="1" baseline="0"/>
-            <a:t> BFS – Motorfahrrad-Erhebung bei den Kantonen; BFS, ASTRA – Strassenfahrzeugbestand (MZF)</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-CH" sz="1100" i="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>147320</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>51135</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Grafik 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6852920" y="5537201"/>
-          <a:ext cx="4132580" cy="3759534"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="516423" cy="320729"/>
+    <xdr:ext cx="507832" cy="176972"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Textfeld 8">
+            <xdr:cNvPr id="23" name="Textfeld 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8C0559-CE99-4051-AA5D-D0EDA00CA230}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4237,1682 +3846,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5516880" y="4328160"/>
-              <a:ext cx="516423" cy="320729"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="de-CH" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑈𝑛𝑓𝑎𝑙𝑙</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑐</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑃𝑘𝑚</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Textfeld 8"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5516880" y="4328160"/>
-              <a:ext cx="516423" cy="320729"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑈𝑛𝑓𝑎𝑙𝑙〗_𝑐/𝑃𝑘𝑚</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>99061</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="838200" cy="370101"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Textfeld 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6804660" y="3764281"/>
-              <a:ext cx="838200" cy="370101"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝛾</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑉𝑒𝑙𝑜</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>,</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑏</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="de-CH" sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> = </m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-CH">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Textfeld 9"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6804660" y="3764281"/>
-              <a:ext cx="838200" cy="370101"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛾_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑉</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑒𝑙𝑜</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑏</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> = </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-CH">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1394460</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="525528" cy="331566"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="Textfeld 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8808720" y="3680460"/>
-              <a:ext cx="525528" cy="331566"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="de-CH" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑈𝑛𝑓𝑎𝑙𝑙</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑏</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑃𝑘𝑚</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="Textfeld 10"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8808720" y="3680460"/>
-              <a:ext cx="525528" cy="331566"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑈𝑛𝑓𝑎𝑙𝑙〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑏</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/𝑃𝑘𝑚</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="541943" cy="370101"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Textfeld 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6957060" y="4114800"/>
-              <a:ext cx="541943" cy="370101"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝛾</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑉𝑒𝑙𝑜</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>,</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑎</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="de-CH" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="de-CH" sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="de-CH" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-CH">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Textfeld 11"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6957060" y="4114800"/>
-              <a:ext cx="541943" cy="370101"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛾_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑉</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑒𝑙𝑜</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑎</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> = </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-CH">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="527965" cy="331501"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Textfeld 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8823960" y="4069080"/>
-              <a:ext cx="527965" cy="331501"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="de-CH" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑈𝑛𝑓𝑎𝑙𝑙</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑎</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑃𝑘𝑚</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Textfeld 12"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8823960" y="4069080"/>
-              <a:ext cx="527965" cy="331501"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑈𝑛𝑓𝑎𝑙𝑙〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑎</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/𝑃𝑘𝑚</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="486672" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Textfeld 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3688079" y="4404360"/>
-              <a:ext cx="486672" cy="176972"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="de-CH" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝛾</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑀𝐼𝑉</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>,</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑐</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> = </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Textfeld 13"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3688079" y="4404360"/>
-              <a:ext cx="486672" cy="176972"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝛾_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑀𝐼𝑉,𝑐)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> = </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="516423" cy="320729"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Textfeld 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5539740" y="3764280"/>
-              <a:ext cx="516423" cy="320729"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="de-CH" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑈𝑛𝑓𝑎𝑙𝑙</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑐</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑃𝑘𝑚</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Textfeld 14"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5539740" y="3764280"/>
-              <a:ext cx="516423" cy="320729"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑈𝑛𝑓𝑎𝑙𝑙〗_𝑐/𝑃𝑘𝑚</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>317081</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="507832" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Textfeld 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3700361" y="3855720"/>
+              <a:off x="10881360" y="3482340"/>
               <a:ext cx="507832" cy="176972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5994,1437 +3928,6 @@
       <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Textfeld 15"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3700361" y="3855720"/>
-              <a:ext cx="507832" cy="176972"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝛾_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑉𝑒𝑙𝑜,𝑐)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> = </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>33020</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>886460</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Textfeld 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6573520" y="937260"/>
-          <a:ext cx="3152140" cy="972820"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100"/>
-            <a:t>Unfallzahlen</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
-            <a:t> der Schweiz für 2019:</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-CH" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100"/>
-            <a:t>Quelle:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100"/>
-            <a:t>Strassenverkehrsunfall-Statistik</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1200"/>
-            <a:t>Übersicht</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1200" baseline="0"/>
-            <a:t>: Unfallfolgen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100"/>
-            <a:t>ganze Schweiz; 2010</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
-            <a:t> - 2019</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-CH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="534762" cy="370101"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Textfeld 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6926580" y="5082540"/>
-              <a:ext cx="534762" cy="370101"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝛾</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑀𝐼𝑉</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>,</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑎</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="de-CH" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="de-CH" sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="de-CH" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-CH">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Textfeld 18"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6926580" y="5082540"/>
-              <a:ext cx="534762" cy="370101"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛾_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑀𝐼𝑉</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑎</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> = </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-CH">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="838200" cy="370101"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Textfeld 19">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6797040" y="4671060"/>
-              <a:ext cx="838200" cy="370101"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝛾</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑀𝐼𝑉</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>,</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑏</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="de-CH" sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> = </m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-CH">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Textfeld 19"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6797040" y="4671060"/>
-              <a:ext cx="838200" cy="370101"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛾_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑀𝐼𝑉</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑏</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> = </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-CH">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="525528" cy="331566"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="Textfeld 20">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8816340" y="4632960"/>
-              <a:ext cx="525528" cy="331566"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="de-CH" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑈𝑛𝑓𝑎𝑙𝑙</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑏</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑃𝑘𝑚</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="Textfeld 20"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8816340" y="4632960"/>
-              <a:ext cx="525528" cy="331566"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑈𝑛𝑓𝑎𝑙𝑙〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑏</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/𝑃𝑘𝑚</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1424940</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="527965" cy="331501"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="Textfeld 21">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8839200" y="4991100"/>
-              <a:ext cx="527965" cy="331501"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="de-CH" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑈𝑛𝑓𝑎𝑙𝑙</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑎</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑃𝑘𝑚</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="Textfeld 21"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8839200" y="4991100"/>
-              <a:ext cx="527965" cy="331501"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑈𝑛𝑓𝑎𝑙𝑙〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑎</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/𝑃𝑘𝑚</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="507832" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="Textfeld 22">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD8C0559-CE99-4051-AA5D-D0EDA00CA230}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10881360" y="3482340"/>
-              <a:ext cx="507832" cy="176972"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="de-CH" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝛾</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑉𝑒𝑙𝑜</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>,</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑐</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> = </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="Textfeld 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -7504,7 +4007,7 @@
             <xdr:cNvPr id="24" name="Textfeld 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F5D6FB7-9585-4EEE-AB82-850B7DE3FC43}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5D6FB7-9585-4EEE-AB82-850B7DE3FC43}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7817,7 +4320,7 @@
             <xdr:cNvPr id="25" name="Textfeld 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB58BBC6-0E0C-46AA-91AB-3E60DE38E739}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB58BBC6-0E0C-46AA-91AB-3E60DE38E739}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8160,7 +4663,7 @@
             <xdr:cNvPr id="26" name="Textfeld 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A2A0E1A-07C2-4DBB-BFF3-A33055C48B90}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2A0E1A-07C2-4DBB-BFF3-A33055C48B90}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8329,7 +4832,7 @@
             <xdr:cNvPr id="27" name="Textfeld 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DA288A0-FC45-4A38-9281-08AC97330131}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA288A0-FC45-4A38-9281-08AC97330131}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8642,7 +5145,7 @@
             <xdr:cNvPr id="28" name="Textfeld 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC838FFF-C786-48D4-83BC-10FB6DD332CE}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC838FFF-C786-48D4-83BC-10FB6DD332CE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8985,7 +5488,7 @@
             <xdr:cNvPr id="29" name="Textfeld 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9304,6 +5807,96 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>960120</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Textfeld 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="251460" y="1531620"/>
+          <a:ext cx="2880360" cy="1158240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>Quellen: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>Leistungen des privaten Personenverkehr -&gt; Verkehrsleistung in Pkm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>Unfallstatistik</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t> -&gt; Anzahl Verkehrsunfälle</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9585,142 +6178,142 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="12"/>
-      <c r="H3" s="59" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="11"/>
+      <c r="H3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="45"/>
+      <c r="K3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>1/828000000</f>
         <v>1.2077294685990338E-9</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>4623952</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f>I5/I10</f>
         <v>0.86131268843739039</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>1/33000000</f>
         <v>3.0303030303030305E-8</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>744542</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <f>I7/I10</f>
         <v>0.13868731156260955</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="K8" s="10"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <f>1/73000000</f>
         <v>1.3698630136986301E-8</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="K9" s="10"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <f>I7+I5</f>
         <v>5368494</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <f>I10/I10</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="3"/>
       <c r="N13">
         <f>B14/K16</f>
         <v>1.5678257063780208E-6</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="38">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20">
         <f>K5*B5 + K7*B7</f>
         <v>5.2428785204316568E-9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="H14" s="59" t="s">
+      <c r="C14" s="5"/>
+      <c r="H14" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="59"/>
-      <c r="K14" s="13" t="s">
+      <c r="I14" s="45"/>
+      <c r="K14" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
-      <c r="G16" s="51" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="5"/>
+      <c r="G16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="4">
+      <c r="H16" s="38"/>
+      <c r="I16" s="3">
         <v>179</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <f>I16/I22</f>
         <v>3.3440442385293677E-3</v>
       </c>
@@ -9730,151 +6323,151 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="38">
+      <c r="A17" s="4"/>
+      <c r="B17" s="20">
         <f>N13*K18</f>
         <v>1.0116705256743542E-7</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="55"/>
-      <c r="K17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="41"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="G18" s="49" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="5"/>
+      <c r="G18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="6">
+      <c r="H18" s="36"/>
+      <c r="I18" s="5">
         <v>3454</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="19">
         <f>I18/I22</f>
         <v>6.4526976535644889E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="55"/>
-      <c r="K19" s="10"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="5"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="41"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="38">
+      <c r="A20" s="4"/>
+      <c r="B20" s="20">
         <f>N13*K20</f>
         <v>1.4614157752901537E-6</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="G20" s="49" t="s">
+      <c r="C20" s="5"/>
+      <c r="G20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="6">
+      <c r="H20" s="36"/>
+      <c r="I20" s="5">
         <v>49895</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <f>I20/I22</f>
         <v>0.93212897922582572</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="6"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
-      <c r="K21" s="10"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="5"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="8"/>
-      <c r="G22" s="53" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="7"/>
+      <c r="G22" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="14">
+      <c r="H22" s="40"/>
+      <c r="I22" s="13">
         <f>I20+I18+I16</f>
         <v>53528</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <f>K20+K18+K16</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="3"/>
       <c r="N24">
         <f>15000*0.06*1.6*365</f>
         <v>525600</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="39">
+      <c r="A25" s="4"/>
+      <c r="B25" s="21">
         <f>B9</f>
         <v>1.3698630136986301E-8</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="38">
+      <c r="A28" s="4"/>
+      <c r="B28" s="20">
         <f>N16*K18</f>
         <v>2.6432999158184737E-7</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
+      <c r="C28" s="5"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="38">
+      <c r="A31" s="4"/>
+      <c r="B31" s="20">
         <f>N16*K20</f>
         <v>3.8183974898599521E-6</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9898,571 +6491,739 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U37"/>
+  <dimension ref="B2:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="3" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="10" width="3" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" customWidth="1"/>
+    <col min="12" max="12" width="3.88671875" customWidth="1"/>
+    <col min="13" max="13" width="3.77734375" customWidth="1"/>
     <col min="14" max="14" width="2.5546875" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
     <col min="18" max="18" width="1.77734375" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="T4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+    <row r="5" spans="2:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="S5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5">
+        <f>2520*(10^6)</f>
+        <v>2520000000</v>
+      </c>
+      <c r="U5">
+        <v>26</v>
+      </c>
+      <c r="V5" s="29">
+        <v>878</v>
+      </c>
+      <c r="W5" s="29">
+        <v>2815</v>
+      </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="P6">
-        <f>0.003/0.065</f>
-        <v>4.6153846153846156E-2</v>
+    <row r="6" spans="2:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6">
+        <f>178*(10^6) + 2023*(10^6) + 96897*(10^6)</f>
+        <v>99098000000</v>
+      </c>
+      <c r="U6" s="29">
+        <v>116</v>
+      </c>
+      <c r="V6" s="29">
+        <v>1898</v>
+      </c>
+      <c r="W6" s="30">
+        <v>12106</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="S8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8">
+        <f>U5/T5</f>
+        <v>1.0317460317460317E-8</v>
+      </c>
+      <c r="V8">
+        <f>V5/T5</f>
+        <v>3.4841269841269841E-7</v>
+      </c>
+      <c r="W8">
+        <f>W5/T5</f>
+        <v>1.1170634920634921E-6</v>
+      </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="S9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9">
+        <f>U6/T6</f>
+        <v>1.1705584371026661E-9</v>
+      </c>
+      <c r="V9">
+        <f>V6/T6</f>
+        <v>1.9152757876041898E-8</v>
+      </c>
+      <c r="W9">
+        <f>W6/T6</f>
+        <v>1.2216190034107652E-7</v>
+      </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="F13" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="69"/>
-      <c r="J13" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="1">
-        <v>179</v>
-      </c>
-      <c r="M13" s="27">
-        <f>L13/L19</f>
-        <v>3.3440442385293677E-3</v>
-      </c>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
     </row>
-    <row r="14" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="69"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="28"/>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="F15" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="1">
-        <f>1/828000000</f>
-        <v>1.2077294685990338E-9</v>
-      </c>
-      <c r="J15" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="1">
-        <v>3454</v>
-      </c>
-      <c r="M15" s="27">
-        <f>L15/L19</f>
-        <v>6.4526976535644889E-2</v>
-      </c>
-      <c r="S15" s="60"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="62"/>
+    <row r="14" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="69"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="28"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="65"/>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="48"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="51"/>
     </row>
     <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F17" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="69"/>
-      <c r="H17" s="1">
-        <f>1/73000000</f>
-        <v>1.3698630136986301E-8</v>
-      </c>
-      <c r="J17" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="1">
-        <v>49895</v>
-      </c>
-      <c r="M17" s="27">
-        <f>L17/L19</f>
-        <v>0.93212897922582572</v>
-      </c>
-      <c r="S17" s="66"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="68"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="54"/>
     </row>
     <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="87"/>
-      <c r="Q18" s="88"/>
-      <c r="S18" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" s="44" t="s">
-        <v>24</v>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="Q18" s="58"/>
+      <c r="S18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F19" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="1">
-        <f>1/33000000</f>
-        <v>3.0303030303030305E-8</v>
-      </c>
-      <c r="J19" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="9">
-        <f>L17+L15+L13</f>
-        <v>53528</v>
-      </c>
-      <c r="M19" s="33"/>
-      <c r="Q19" s="89"/>
-      <c r="S19" s="43">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="Q19" s="59"/>
+      <c r="S19" s="25">
         <v>0</v>
       </c>
-      <c r="T19" s="45">
+      <c r="T19" s="27">
         <v>0.5</v>
       </c>
-      <c r="U19" s="43">
+      <c r="U19" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="2"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
-      <c r="P20" s="40">
-        <f>F22</f>
-        <v>1.3698630136986301E-8</v>
-      </c>
-      <c r="Q20" s="40"/>
-      <c r="S20" s="42">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="P20" s="31">
+        <f>U8</f>
+        <v>1.0317460317460317E-8</v>
+      </c>
+      <c r="Q20" s="22"/>
+      <c r="S20" s="24">
         <f>P20</f>
-        <v>1.3698630136986301E-8</v>
-      </c>
-      <c r="T20" s="42">
+        <v>1.0317460317460317E-8</v>
+      </c>
+      <c r="T20" s="24">
         <f>P20+(0.5*P20)</f>
-        <v>2.0547945205479452E-8</v>
-      </c>
-      <c r="U20" s="42">
+        <v>1.5476190476190475E-8</v>
+      </c>
+      <c r="U20" s="24">
         <f>P20+(0*P20)</f>
-        <v>1.3698630136986301E-8</v>
+        <v>1.0317460317460317E-8</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J21" s="70">
-        <f>(F22/M13)*M15</f>
-        <v>2.6432999158184737E-7</v>
-      </c>
-      <c r="K21" s="71"/>
-      <c r="L21" s="72"/>
-      <c r="P21" s="40">
-        <f>J21</f>
-        <v>2.6432999158184737E-7</v>
-      </c>
-      <c r="Q21" s="40"/>
-      <c r="S21" s="42">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="P21" s="31">
+        <f>V8</f>
+        <v>3.4841269841269841E-7</v>
+      </c>
+      <c r="Q21" s="22"/>
+      <c r="S21" s="24">
         <f>P21</f>
-        <v>2.6432999158184737E-7</v>
-      </c>
-      <c r="T21" s="42">
+        <v>3.4841269841269841E-7</v>
+      </c>
+      <c r="T21" s="24">
         <f>P21+(0.5*P21)</f>
-        <v>3.9649498737277106E-7</v>
-      </c>
-      <c r="U21" s="42">
+        <v>5.2261904761904761E-7</v>
+      </c>
+      <c r="U21" s="24">
         <f>P21+(0*P21)</f>
-        <v>2.6432999158184737E-7</v>
+        <v>3.4841269841269841E-7</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F22" s="70">
-        <f>H17</f>
-        <v>1.3698630136986301E-8</v>
-      </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="P22" s="40">
-        <f>J23</f>
-        <v>3.8183974898599521E-6</v>
-      </c>
-      <c r="Q22" s="40"/>
-      <c r="S22" s="42">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="1"/>
+      <c r="P22" s="31">
+        <f>W8</f>
+        <v>1.1170634920634921E-6</v>
+      </c>
+      <c r="Q22" s="22"/>
+      <c r="S22" s="24">
         <f>P22</f>
-        <v>3.8183974898599521E-6</v>
-      </c>
-      <c r="T22" s="42">
+        <v>1.1170634920634921E-6</v>
+      </c>
+      <c r="T22" s="24">
         <f>P22+(0.5*P22)</f>
-        <v>5.7275962347899282E-6</v>
-      </c>
-      <c r="U22" s="42">
+        <v>1.6755952380952382E-6</v>
+      </c>
+      <c r="U22" s="24">
         <f>P22+(0*P22)</f>
-        <v>3.8183974898599521E-6</v>
+        <v>1.1170634920634921E-6</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
-      <c r="J23" s="70">
-        <f>(F22/M13)*M17</f>
-        <v>3.8183974898599521E-6</v>
-      </c>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="2"/>
-      <c r="S23" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="T23" s="85"/>
-      <c r="U23" s="86"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="1"/>
+      <c r="P23" s="31"/>
+      <c r="S23" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23" s="56"/>
+      <c r="U23" s="57"/>
     </row>
-    <row r="24" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="2"/>
-      <c r="P24" s="40">
-        <f>F26</f>
-        <v>5.2428785204316568E-9</v>
-      </c>
-      <c r="Q24" s="40"/>
-      <c r="S24" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="T24" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="U24" s="42">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="1"/>
+      <c r="P24" s="31">
+        <f>U9</f>
+        <v>1.1705584371026661E-9</v>
+      </c>
+      <c r="Q24" s="22"/>
+      <c r="S24" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24" s="24">
         <f>P24-(0.5*P24)</f>
-        <v>2.6214392602158284E-9</v>
+        <v>5.8527921855133306E-10</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="37"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="P25" s="40">
-        <f>J26</f>
-        <v>1.0116705256743542E-7</v>
-      </c>
-      <c r="Q25" s="40"/>
-      <c r="S25" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="T25" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="U25" s="42">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="1"/>
+      <c r="P25" s="31">
+        <f>V9</f>
+        <v>1.9152757876041898E-8</v>
+      </c>
+      <c r="Q25" s="22"/>
+      <c r="S25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U25" s="24">
         <f>P25-(0.5*P25)</f>
-        <v>5.0583526283717708E-8</v>
+        <v>9.5763789380209491E-9</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="70">
-        <f>H15*H32+H19*H34</f>
-        <v>5.2428785204316568E-9</v>
-      </c>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72"/>
-      <c r="J26" s="70">
-        <f>(F26/M13)*M15</f>
-        <v>1.0116705256743542E-7</v>
-      </c>
-      <c r="K26" s="71"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="P26" s="40">
-        <f>J28</f>
-        <v>1.4614157752901537E-6</v>
-      </c>
-      <c r="Q26" s="40"/>
-      <c r="S26" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="T26" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="U26" s="42">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="1"/>
+      <c r="P26" s="31">
+        <f>W9</f>
+        <v>1.2216190034107652E-7</v>
+      </c>
+      <c r="Q26" s="22"/>
+      <c r="S26" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" s="24">
         <f>P26-(0.5*P26)</f>
-        <v>7.3070788764507686E-7</v>
+        <v>6.1080950170538259E-8</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="2"/>
-      <c r="S27" s="43">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="1"/>
+      <c r="S27" s="25">
         <v>0</v>
       </c>
-      <c r="T27" s="43">
+      <c r="T27" s="25">
         <v>0</v>
       </c>
-      <c r="U27" s="43">
+      <c r="U27" s="25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
-      <c r="J28" s="70">
-        <f>(F26/M13)*M17</f>
-        <v>1.4614157752901537E-6</v>
-      </c>
-      <c r="K28" s="71"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J29" s="76"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="L30" s="2"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="2"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="H31" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="18">
-        <v>4623952</v>
-      </c>
-      <c r="H32" s="24">
-        <f>G32/G36</f>
-        <v>0.86131268843739039</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="6"/>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>744542</v>
-      </c>
-      <c r="H34" s="25">
-        <f>G34/G36</f>
-        <v>0.13868731156260955</v>
-      </c>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="8"/>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="F36" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="26">
-        <f>G34+G32</f>
-        <v>5368494</v>
-      </c>
-      <c r="H36" s="23">
-        <f>G36/G36</f>
-        <v>1</v>
-      </c>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="J37" s="2"/>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="5">
+    <mergeCell ref="B2:D6"/>
+    <mergeCell ref="B9:D15"/>
+    <mergeCell ref="S15:U17"/>
     <mergeCell ref="S23:U23"/>
-    <mergeCell ref="J18:L18"/>
     <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="J28:L29"/>
-    <mergeCell ref="F22:H24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="S15:U17"/>
-    <mergeCell ref="B2:E6"/>
-    <mergeCell ref="B8:E11"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B32:E35"/>
-    <mergeCell ref="F26:H28"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J6:L11"/>
-    <mergeCell ref="J23:L24"/>
-    <mergeCell ref="J21:L22"/>
-    <mergeCell ref="J26:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>

--- a/09-Excell/Unfallrisiko Schätzung.xlsx
+++ b/09-Excell/Unfallrisiko Schätzung.xlsx
@@ -693,7 +693,7 @@
             <xdr:cNvPr id="3" name="Textfeld 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -854,7 +854,7 @@
             <xdr:cNvPr id="4" name="Textfeld 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1020,7 +1020,7 @@
             <xdr:cNvPr id="5" name="Textfeld 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
             <xdr:cNvPr id="6" name="Textfeld 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
             <xdr:cNvPr id="7" name="Textfeld 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1920,7 +1920,7 @@
             <xdr:cNvPr id="8" name="Textfeld 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2152,7 +2152,7 @@
             <xdr:cNvPr id="9" name="Textfeld 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2459,7 +2459,7 @@
             <xdr:cNvPr id="10" name="Textfeld 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2766,7 +2766,7 @@
             <xdr:cNvPr id="11" name="Textfeld 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3057,7 +3057,7 @@
             <xdr:cNvPr id="12" name="Textfeld 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3265,7 +3265,7 @@
             <xdr:cNvPr id="13" name="Textfeld 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3497,7 +3497,7 @@
             <xdr:cNvPr id="14" name="Textfeld 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3737,7 +3737,7 @@
         <xdr:cNvPr id="2" name="Textfeld 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3838,7 +3838,7 @@
             <xdr:cNvPr id="23" name="Textfeld 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8C0559-CE99-4051-AA5D-D0EDA00CA230}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD8C0559-CE99-4051-AA5D-D0EDA00CA230}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4007,7 +4007,7 @@
             <xdr:cNvPr id="24" name="Textfeld 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5D6FB7-9585-4EEE-AB82-850B7DE3FC43}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F5D6FB7-9585-4EEE-AB82-850B7DE3FC43}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4320,7 +4320,7 @@
             <xdr:cNvPr id="25" name="Textfeld 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB58BBC6-0E0C-46AA-91AB-3E60DE38E739}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB58BBC6-0E0C-46AA-91AB-3E60DE38E739}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4663,7 +4663,7 @@
             <xdr:cNvPr id="26" name="Textfeld 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2A0E1A-07C2-4DBB-BFF3-A33055C48B90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A2A0E1A-07C2-4DBB-BFF3-A33055C48B90}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4832,7 +4832,7 @@
             <xdr:cNvPr id="27" name="Textfeld 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA288A0-FC45-4A38-9281-08AC97330131}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DA288A0-FC45-4A38-9281-08AC97330131}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5145,7 +5145,7 @@
             <xdr:cNvPr id="28" name="Textfeld 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC838FFF-C786-48D4-83BC-10FB6DD332CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC838FFF-C786-48D4-83BC-10FB6DD332CE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5488,7 +5488,7 @@
             <xdr:cNvPr id="29" name="Textfeld 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6494,7 +6494,7 @@
   <dimension ref="B2:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/09-Excell/Unfallrisiko Schätzung.xlsx
+++ b/09-Excell/Unfallrisiko Schätzung.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Autos + LKW +…</t>
   </si>
@@ -140,6 +140,28 @@
   <si>
     <t>MIV</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Erhöhung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Unfallrisiko (Velo):</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -395,24 +417,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -521,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -559,13 +563,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -628,34 +632,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -693,7 +688,7 @@
             <xdr:cNvPr id="3" name="Textfeld 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -854,7 +849,7 @@
             <xdr:cNvPr id="4" name="Textfeld 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1020,7 +1015,7 @@
             <xdr:cNvPr id="5" name="Textfeld 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1339,7 +1334,7 @@
             <xdr:cNvPr id="6" name="Textfeld 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1571,7 +1566,7 @@
             <xdr:cNvPr id="7" name="Textfeld 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1920,7 +1915,7 @@
             <xdr:cNvPr id="8" name="Textfeld 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2152,7 +2147,7 @@
             <xdr:cNvPr id="9" name="Textfeld 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2459,7 +2454,7 @@
             <xdr:cNvPr id="10" name="Textfeld 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2766,7 +2761,7 @@
             <xdr:cNvPr id="11" name="Textfeld 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3057,7 +3052,7 @@
             <xdr:cNvPr id="12" name="Textfeld 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3265,7 +3260,7 @@
             <xdr:cNvPr id="13" name="Textfeld 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3497,7 +3492,7 @@
             <xdr:cNvPr id="14" name="Textfeld 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3737,7 +3732,7 @@
         <xdr:cNvPr id="2" name="Textfeld 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3838,7 +3833,7 @@
             <xdr:cNvPr id="23" name="Textfeld 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD8C0559-CE99-4051-AA5D-D0EDA00CA230}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8C0559-CE99-4051-AA5D-D0EDA00CA230}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4007,7 +4002,7 @@
             <xdr:cNvPr id="24" name="Textfeld 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F5D6FB7-9585-4EEE-AB82-850B7DE3FC43}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5D6FB7-9585-4EEE-AB82-850B7DE3FC43}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4320,7 +4315,7 @@
             <xdr:cNvPr id="25" name="Textfeld 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB58BBC6-0E0C-46AA-91AB-3E60DE38E739}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB58BBC6-0E0C-46AA-91AB-3E60DE38E739}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4663,7 +4658,7 @@
             <xdr:cNvPr id="26" name="Textfeld 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A2A0E1A-07C2-4DBB-BFF3-A33055C48B90}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2A0E1A-07C2-4DBB-BFF3-A33055C48B90}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4832,7 +4827,7 @@
             <xdr:cNvPr id="27" name="Textfeld 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DA288A0-FC45-4A38-9281-08AC97330131}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA288A0-FC45-4A38-9281-08AC97330131}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5145,7 +5140,7 @@
             <xdr:cNvPr id="28" name="Textfeld 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC838FFF-C786-48D4-83BC-10FB6DD332CE}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC838FFF-C786-48D4-83BC-10FB6DD332CE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5488,7 +5483,7 @@
             <xdr:cNvPr id="29" name="Textfeld 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5715,9 +5710,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2324100" cy="502920"/>
     <xdr:sp macro="" textlink="">
@@ -5727,7 +5722,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13289280" y="2590800"/>
+          <a:off x="8229600" y="2613660"/>
           <a:ext cx="2324100" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5787,21 +5782,6 @@
           <a:endParaRPr lang="de-CH">
             <a:effectLst/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Erhöhung</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100"/>
-            <a:t> Unfallrisiko (Velo) um:</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6494,7 +6474,7 @@
   <dimension ref="B2:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6761,7 +6741,7 @@
       <c r="T15" s="47"/>
       <c r="U15" s="48"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -6791,7 +6771,9 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="S17" s="52"/>
+      <c r="S17" s="52" t="s">
+        <v>24</v>
+      </c>
       <c r="T17" s="53"/>
       <c r="U17" s="54"/>
     </row>
@@ -6808,7 +6790,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="Q18" s="58"/>
+      <c r="Q18" s="55"/>
       <c r="S18" s="26" t="s">
         <v>15</v>
       </c>
@@ -6831,7 +6813,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="Q19" s="59"/>
+      <c r="Q19" s="56"/>
       <c r="S19" s="25">
         <v>0</v>
       </c>
@@ -6947,11 +6929,11 @@
       <c r="M23" s="11"/>
       <c r="N23" s="1"/>
       <c r="P23" s="31"/>
-      <c r="S23" s="55" t="s">
+      <c r="S23" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="T23" s="56"/>
-      <c r="U23" s="57"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="54"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C24" s="11"/>
@@ -7218,12 +7200,13 @@
       <c r="J39" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B2:D6"/>
     <mergeCell ref="B9:D15"/>
-    <mergeCell ref="S15:U17"/>
     <mergeCell ref="S23:U23"/>
     <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S15:U16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>

--- a/09-Excell/Unfallrisiko Schätzung.xlsx
+++ b/09-Excell/Unfallrisiko Schätzung.xlsx
@@ -525,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -557,12 +557,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -620,6 +614,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,19 +647,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -688,7 +694,7 @@
             <xdr:cNvPr id="3" name="Textfeld 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -849,7 +855,7 @@
             <xdr:cNvPr id="4" name="Textfeld 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1015,7 +1021,7 @@
             <xdr:cNvPr id="5" name="Textfeld 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1334,7 +1340,7 @@
             <xdr:cNvPr id="6" name="Textfeld 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1566,7 +1572,7 @@
             <xdr:cNvPr id="7" name="Textfeld 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1915,7 +1921,7 @@
             <xdr:cNvPr id="8" name="Textfeld 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2147,7 +2153,7 @@
             <xdr:cNvPr id="9" name="Textfeld 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2454,7 +2460,7 @@
             <xdr:cNvPr id="10" name="Textfeld 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2761,7 +2767,7 @@
             <xdr:cNvPr id="11" name="Textfeld 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3052,7 +3058,7 @@
             <xdr:cNvPr id="12" name="Textfeld 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3260,7 +3266,7 @@
             <xdr:cNvPr id="13" name="Textfeld 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3492,7 +3498,7 @@
             <xdr:cNvPr id="14" name="Textfeld 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3732,7 +3738,7 @@
         <xdr:cNvPr id="2" name="Textfeld 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3833,7 +3839,7 @@
             <xdr:cNvPr id="23" name="Textfeld 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8C0559-CE99-4051-AA5D-D0EDA00CA230}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD8C0559-CE99-4051-AA5D-D0EDA00CA230}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4002,7 +4008,7 @@
             <xdr:cNvPr id="24" name="Textfeld 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5D6FB7-9585-4EEE-AB82-850B7DE3FC43}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F5D6FB7-9585-4EEE-AB82-850B7DE3FC43}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4315,7 +4321,7 @@
             <xdr:cNvPr id="25" name="Textfeld 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB58BBC6-0E0C-46AA-91AB-3E60DE38E739}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB58BBC6-0E0C-46AA-91AB-3E60DE38E739}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4658,7 +4664,7 @@
             <xdr:cNvPr id="26" name="Textfeld 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2A0E1A-07C2-4DBB-BFF3-A33055C48B90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A2A0E1A-07C2-4DBB-BFF3-A33055C48B90}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4827,7 +4833,7 @@
             <xdr:cNvPr id="27" name="Textfeld 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA288A0-FC45-4A38-9281-08AC97330131}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DA288A0-FC45-4A38-9281-08AC97330131}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5140,7 +5146,7 @@
             <xdr:cNvPr id="28" name="Textfeld 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC838FFF-C786-48D4-83BC-10FB6DD332CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC838FFF-C786-48D4-83BC-10FB6DD332CE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5483,7 +5489,7 @@
             <xdr:cNvPr id="29" name="Textfeld 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3C99223-7B30-45F3-927F-E50972A673D1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6158,15 +6164,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="11"/>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="45"/>
+      <c r="I3" s="43"/>
       <c r="K3" s="12" t="s">
         <v>3</v>
       </c>
@@ -6269,10 +6275,10 @@
         <v>5.2428785204316568E-9</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="45"/>
+      <c r="I14" s="43"/>
       <c r="K14" s="12" t="s">
         <v>3</v>
       </c>
@@ -6286,10 +6292,10 @@
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="5"/>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="3">
         <v>179</v>
       </c>
@@ -6309,19 +6315,19 @@
         <v>1.0116705256743542E-7</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="41"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="39"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5"/>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="36"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="5">
         <v>3454</v>
       </c>
@@ -6334,9 +6340,9 @@
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
       <c r="C19" s="5"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="41"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="39"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -6346,10 +6352,10 @@
         <v>1.4614157752901537E-6</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="36"/>
+      <c r="H20" s="34"/>
       <c r="I20" s="5">
         <v>49895</v>
       </c>
@@ -6362,19 +6368,19 @@
       <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="5"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="17"/>
       <c r="C22" s="7"/>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="40"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="13">
         <f>I20+I18+I16</f>
         <v>53528</v>
@@ -6418,8 +6424,8 @@
         <v>2.6432999158184737E-7</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -6473,8 +6479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="L13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6497,36 +6503,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="T4" s="28" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="T4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="U4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="28" t="s">
+      <c r="V4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="W4" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="15" x14ac:dyDescent="0.35">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -6546,17 +6552,17 @@
       <c r="U5">
         <v>26</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="27">
         <v>878</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="27">
         <v>2815</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="15" x14ac:dyDescent="0.35">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -6573,13 +6579,13 @@
         <f>178*(10^6) + 2023*(10^6) + 96897*(10^6)</f>
         <v>99098000000</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="27">
         <v>116</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="27">
         <v>1898</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="28">
         <v>12106</v>
       </c>
     </row>
@@ -6626,9 +6632,9 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -6655,9 +6661,9 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -6669,9 +6675,9 @@
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -6683,9 +6689,9 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -6697,9 +6703,9 @@
       <c r="M12" s="11"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -6711,9 +6717,9 @@
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -6725,9 +6731,9 @@
       <c r="M14" s="11"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -6737,9 +6743,9 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="48"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="51"/>
     </row>
     <row r="16" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
@@ -6754,9 +6760,9 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="51"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="54"/>
     </row>
     <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
@@ -6771,11 +6777,11 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="S17" s="52" t="s">
+      <c r="S17" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="T17" s="53"/>
-      <c r="U17" s="54"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="46"/>
     </row>
     <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
@@ -6790,14 +6796,14 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="Q18" s="55"/>
-      <c r="S18" s="26" t="s">
+      <c r="Q18" s="47"/>
+      <c r="S18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T18" s="26" t="s">
+      <c r="T18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="U18" s="26" t="s">
+      <c r="U18" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6813,14 +6819,14 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="Q19" s="56"/>
-      <c r="S19" s="25">
+      <c r="Q19" s="48"/>
+      <c r="S19" s="23">
         <v>0</v>
       </c>
-      <c r="T19" s="27">
+      <c r="T19" s="25">
         <v>0.5</v>
       </c>
-      <c r="U19" s="25">
+      <c r="U19" s="23">
         <v>0</v>
       </c>
     </row>
@@ -6836,20 +6842,20 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="P20" s="31">
+      <c r="P20" s="29">
         <f>U8</f>
         <v>1.0317460317460317E-8</v>
       </c>
       <c r="Q20" s="22"/>
-      <c r="S20" s="24">
+      <c r="S20" s="55">
         <f>P20</f>
         <v>1.0317460317460317E-8</v>
       </c>
-      <c r="T20" s="24">
+      <c r="T20" s="55">
         <f>P20+(0.5*P20)</f>
         <v>1.5476190476190475E-8</v>
       </c>
-      <c r="U20" s="24">
+      <c r="U20" s="55">
         <f>P20+(0*P20)</f>
         <v>1.0317460317460317E-8</v>
       </c>
@@ -6866,20 +6872,20 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="P21" s="31">
+      <c r="P21" s="29">
         <f>V8</f>
         <v>3.4841269841269841E-7</v>
       </c>
       <c r="Q21" s="22"/>
-      <c r="S21" s="24">
+      <c r="S21" s="55">
         <f>P21</f>
         <v>3.4841269841269841E-7</v>
       </c>
-      <c r="T21" s="24">
+      <c r="T21" s="55">
         <f>P21+(0.5*P21)</f>
         <v>5.2261904761904761E-7</v>
       </c>
-      <c r="U21" s="24">
+      <c r="U21" s="55">
         <f>P21+(0*P21)</f>
         <v>3.4841269841269841E-7</v>
       </c>
@@ -6897,20 +6903,20 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="1"/>
-      <c r="P22" s="31">
+      <c r="P22" s="29">
         <f>W8</f>
         <v>1.1170634920634921E-6</v>
       </c>
       <c r="Q22" s="22"/>
-      <c r="S22" s="24">
+      <c r="S22" s="55">
         <f>P22</f>
         <v>1.1170634920634921E-6</v>
       </c>
-      <c r="T22" s="24">
+      <c r="T22" s="55">
         <f>P22+(0.5*P22)</f>
         <v>1.6755952380952382E-6</v>
       </c>
-      <c r="U22" s="24">
+      <c r="U22" s="55">
         <f>P22+(0*P22)</f>
         <v>1.1170634920634921E-6</v>
       </c>
@@ -6928,12 +6934,12 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="1"/>
-      <c r="P23" s="31"/>
-      <c r="S23" s="52" t="s">
+      <c r="P23" s="29"/>
+      <c r="S23" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="T23" s="53"/>
-      <c r="U23" s="54"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="58"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C24" s="11"/>
@@ -6948,18 +6954,18 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="1"/>
-      <c r="P24" s="31">
+      <c r="P24" s="29">
         <f>U9</f>
         <v>1.1705584371026661E-9</v>
       </c>
       <c r="Q24" s="22"/>
-      <c r="S24" s="23" t="s">
+      <c r="S24" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="T24" s="23" t="s">
+      <c r="T24" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="U24" s="24">
+      <c r="U24" s="55">
         <f>P24-(0.5*P24)</f>
         <v>5.8527921855133306E-10</v>
       </c>
@@ -6977,18 +6983,18 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="1"/>
-      <c r="P25" s="31">
+      <c r="P25" s="29">
         <f>V9</f>
         <v>1.9152757876041898E-8</v>
       </c>
       <c r="Q25" s="22"/>
-      <c r="S25" s="23" t="s">
+      <c r="S25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="T25" s="23" t="s">
+      <c r="T25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="U25" s="24">
+      <c r="U25" s="55">
         <f>P25-(0.5*P25)</f>
         <v>9.5763789380209491E-9</v>
       </c>
@@ -7006,18 +7012,18 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="1"/>
-      <c r="P26" s="31">
+      <c r="P26" s="29">
         <f>W9</f>
         <v>1.2216190034107652E-7</v>
       </c>
       <c r="Q26" s="22"/>
-      <c r="S26" s="23" t="s">
+      <c r="S26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="T26" s="23" t="s">
+      <c r="T26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="U26" s="24">
+      <c r="U26" s="55">
         <f>P26-(0.5*P26)</f>
         <v>6.1080950170538259E-8</v>
       </c>
@@ -7035,13 +7041,13 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="1"/>
-      <c r="S27" s="25">
+      <c r="S27" s="23">
         <v>0</v>
       </c>
-      <c r="T27" s="25">
+      <c r="T27" s="23">
         <v>0</v>
       </c>
-      <c r="U27" s="25">
+      <c r="U27" s="23">
         <v>0.5</v>
       </c>
     </row>
